--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-message-category.xlsx
+++ b/fhir/ValueSet-message-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -102,25 +102,13 @@
     <t>message</t>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t>notification</t>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
     <t>advice</t>
   </si>
   <si>
-    <t>Advice</t>
-  </si>
-  <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t/>
@@ -416,48 +404,40 @@
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
